--- a/natmiOut/OldD2/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="H2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="I2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="J2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.64557892982294</v>
+        <v>4.713375</v>
       </c>
       <c r="N2">
-        <v>3.64557892982294</v>
+        <v>9.42675</v>
       </c>
       <c r="O2">
-        <v>0.0519203050101867</v>
+        <v>0.05587567929323027</v>
       </c>
       <c r="P2">
-        <v>0.0519203050101867</v>
+        <v>0.0419151680218315</v>
       </c>
       <c r="Q2">
-        <v>51.92828203572147</v>
+        <v>70.650733925625</v>
       </c>
       <c r="R2">
-        <v>51.92828203572147</v>
+        <v>282.6029357025</v>
       </c>
       <c r="S2">
-        <v>0.002812324976408471</v>
+        <v>0.003099673281522027</v>
       </c>
       <c r="T2">
-        <v>0.002812324976408471</v>
+        <v>0.001632089094753141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="H3">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="I3">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="J3">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.079904035637</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N3">
-        <v>39.079904035637</v>
+        <v>129.257158</v>
       </c>
       <c r="O3">
-        <v>0.5565756705198114</v>
+        <v>0.510768575720681</v>
       </c>
       <c r="P3">
-        <v>0.5565756705198114</v>
+        <v>0.5747299435748717</v>
       </c>
       <c r="Q3">
-        <v>556.6611826972706</v>
+        <v>645.8297276608567</v>
       </c>
       <c r="R3">
-        <v>556.6611826972706</v>
+        <v>3874.97836596514</v>
       </c>
       <c r="S3">
-        <v>0.03014758212913143</v>
+        <v>0.02833461225399855</v>
       </c>
       <c r="T3">
-        <v>0.03014758212913143</v>
+        <v>0.02237878356703887</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="H4">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="I4">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="J4">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.976918479931924</v>
+        <v>0.1358286666666667</v>
       </c>
       <c r="N4">
-        <v>0.976918479931924</v>
+        <v>0.407486</v>
       </c>
       <c r="O4">
-        <v>0.01391326492295064</v>
+        <v>0.001610209036517091</v>
       </c>
       <c r="P4">
-        <v>0.01391326492295064</v>
+        <v>0.00181184863887809</v>
       </c>
       <c r="Q4">
-        <v>13.91540255425964</v>
+        <v>2.035992253563334</v>
       </c>
       <c r="R4">
-        <v>13.91540255425964</v>
+        <v>12.21595352138</v>
       </c>
       <c r="S4">
-        <v>0.0007536285165991414</v>
+        <v>8.932548098367483E-05</v>
       </c>
       <c r="T4">
-        <v>0.0007536285165991414</v>
+        <v>7.054960159806702E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="H5">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="I5">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="J5">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.08339691402928</v>
+        <v>1.596503666666666</v>
       </c>
       <c r="N5">
-        <v>6.08339691402928</v>
+        <v>4.789510999999999</v>
       </c>
       <c r="O5">
-        <v>0.08663968860763883</v>
+        <v>0.01892608308677601</v>
       </c>
       <c r="P5">
-        <v>0.08663968860763883</v>
+        <v>0.02129611566100832</v>
       </c>
       <c r="Q5">
-        <v>86.65299991249755</v>
+        <v>23.93065600868833</v>
       </c>
       <c r="R5">
-        <v>86.65299991249755</v>
+        <v>143.58393605213</v>
       </c>
       <c r="S5">
-        <v>0.00469294161834584</v>
+        <v>0.001049914288470282</v>
       </c>
       <c r="T5">
-        <v>0.00469294161834584</v>
+        <v>0.000829226262741688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="H6">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="I6">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="J6">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.4290998216986</v>
+        <v>11.373275</v>
       </c>
       <c r="N6">
-        <v>20.4290998216986</v>
+        <v>34.119825</v>
       </c>
       <c r="O6">
-        <v>0.2909510709394126</v>
+        <v>0.1348268420004166</v>
       </c>
       <c r="P6">
-        <v>0.2909510709394126</v>
+        <v>0.1517106317395165</v>
       </c>
       <c r="Q6">
-        <v>290.9957726052021</v>
+        <v>170.478738884125</v>
       </c>
       <c r="R6">
-        <v>290.9957726052021</v>
+        <v>1022.87243330475</v>
       </c>
       <c r="S6">
-        <v>0.01575971026277992</v>
+        <v>0.007479446604800687</v>
       </c>
       <c r="T6">
-        <v>0.01575971026277992</v>
+        <v>0.005907295122644133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.9322726856145</v>
+        <v>14.989415</v>
       </c>
       <c r="H7">
-        <v>54.9322726856145</v>
+        <v>29.97883</v>
       </c>
       <c r="I7">
-        <v>0.2088903543595454</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="J7">
-        <v>0.2088903543595454</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.64557892982294</v>
+        <v>23.4499775</v>
       </c>
       <c r="N7">
-        <v>3.64557892982294</v>
+        <v>46.899955</v>
       </c>
       <c r="O7">
-        <v>0.0519203050101867</v>
+        <v>0.277992610862379</v>
       </c>
       <c r="P7">
-        <v>0.0519203050101867</v>
+        <v>0.2085362923638938</v>
       </c>
       <c r="Q7">
-        <v>200.2599358699644</v>
+        <v>351.5014444881625</v>
       </c>
       <c r="R7">
-        <v>200.2599358699644</v>
+        <v>1406.00577795265</v>
       </c>
       <c r="S7">
-        <v>0.01084565091203358</v>
+        <v>0.01542149069595411</v>
       </c>
       <c r="T7">
-        <v>0.01084565091203358</v>
+        <v>0.008119967655863689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="H8">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="I8">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="J8">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.079904035637</v>
+        <v>4.713375</v>
       </c>
       <c r="N8">
-        <v>39.079904035637</v>
+        <v>9.42675</v>
       </c>
       <c r="O8">
-        <v>0.5565756705198114</v>
+        <v>0.05587567929323027</v>
       </c>
       <c r="P8">
-        <v>0.5565756705198114</v>
+        <v>0.0419151680218315</v>
       </c>
       <c r="Q8">
-        <v>2146.747945013258</v>
+        <v>274.579984318875</v>
       </c>
       <c r="R8">
-        <v>2146.747945013258</v>
+        <v>1647.47990591325</v>
       </c>
       <c r="S8">
-        <v>0.116263289042785</v>
+        <v>0.01204670063201222</v>
       </c>
       <c r="T8">
-        <v>0.116263289042785</v>
+        <v>0.009514529569843246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="H9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="I9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="J9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.976918479931924</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N9">
-        <v>0.976918479931924</v>
+        <v>129.257158</v>
       </c>
       <c r="O9">
-        <v>0.01391326492295064</v>
+        <v>0.510768575720681</v>
       </c>
       <c r="P9">
-        <v>0.01391326492295064</v>
+        <v>0.5747299435748717</v>
       </c>
       <c r="Q9">
-        <v>53.66435233123646</v>
+        <v>2509.979821022965</v>
       </c>
       <c r="R9">
-        <v>53.66435233123646</v>
+        <v>22589.81838920668</v>
       </c>
       <c r="S9">
-        <v>0.002906346840053393</v>
+        <v>0.1101208289863565</v>
       </c>
       <c r="T9">
-        <v>0.002906346840053393</v>
+        <v>0.1304607687596362</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="H10">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="I10">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="J10">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.08339691402928</v>
+        <v>0.1358286666666667</v>
       </c>
       <c r="N10">
-        <v>6.08339691402928</v>
+        <v>0.407486</v>
       </c>
       <c r="O10">
-        <v>0.08663968860763883</v>
+        <v>0.001610209036517091</v>
       </c>
       <c r="P10">
-        <v>0.08663968860763883</v>
+        <v>0.00181184863887809</v>
       </c>
       <c r="Q10">
-        <v>334.1748181362822</v>
+        <v>7.912765940199335</v>
       </c>
       <c r="R10">
-        <v>334.1748181362822</v>
+        <v>71.21489346179401</v>
       </c>
       <c r="S10">
-        <v>0.01809819525485035</v>
+        <v>0.0003471583068562784</v>
       </c>
       <c r="T10">
-        <v>0.01809819525485035</v>
+        <v>0.0004112804090802392</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="H11">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="I11">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="J11">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.4290998216986</v>
+        <v>1.596503666666666</v>
       </c>
       <c r="N11">
-        <v>20.4290998216986</v>
+        <v>4.789510999999999</v>
       </c>
       <c r="O11">
-        <v>0.2909510709394126</v>
+        <v>0.01892608308677601</v>
       </c>
       <c r="P11">
-        <v>0.2909510709394126</v>
+        <v>0.02129611566100832</v>
       </c>
       <c r="Q11">
-        <v>1122.216882127186</v>
+        <v>93.00510817797432</v>
       </c>
       <c r="R11">
-        <v>1122.216882127186</v>
+        <v>837.0459736017689</v>
       </c>
       <c r="S11">
-        <v>0.06077687230982314</v>
+        <v>0.004080431056354133</v>
       </c>
       <c r="T11">
-        <v>0.06077687230982314</v>
+        <v>0.004834109744566205</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78.83877351709759</v>
+        <v>58.255493</v>
       </c>
       <c r="H12">
-        <v>78.83877351709759</v>
+        <v>174.766479</v>
       </c>
       <c r="I12">
-        <v>0.2997993443947063</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="J12">
-        <v>0.2997993443947063</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.64557892982294</v>
+        <v>11.373275</v>
       </c>
       <c r="N12">
-        <v>3.64557892982294</v>
+        <v>34.119825</v>
       </c>
       <c r="O12">
-        <v>0.0519203050101867</v>
+        <v>0.1348268420004166</v>
       </c>
       <c r="P12">
-        <v>0.0519203050101867</v>
+        <v>0.1517106317395165</v>
       </c>
       <c r="Q12">
-        <v>287.4129715870138</v>
+        <v>662.5557421495749</v>
       </c>
       <c r="R12">
-        <v>287.4129715870138</v>
+        <v>5963.001679346175</v>
       </c>
       <c r="S12">
-        <v>0.01556567340282716</v>
+        <v>0.02906843591493331</v>
       </c>
       <c r="T12">
-        <v>0.01556567340282716</v>
+        <v>0.03443754039094882</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>78.83877351709759</v>
+        <v>58.255493</v>
       </c>
       <c r="H13">
-        <v>78.83877351709759</v>
+        <v>174.766479</v>
       </c>
       <c r="I13">
-        <v>0.2997993443947063</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="J13">
-        <v>0.2997993443947063</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.079904035637</v>
+        <v>23.4499775</v>
       </c>
       <c r="N13">
-        <v>39.079904035637</v>
+        <v>46.899955</v>
       </c>
       <c r="O13">
-        <v>0.5565756705198114</v>
+        <v>0.277992610862379</v>
       </c>
       <c r="P13">
-        <v>0.5565756705198114</v>
+        <v>0.2085362923638938</v>
       </c>
       <c r="Q13">
-        <v>3081.011703335494</v>
+        <v>1366.090000101407</v>
       </c>
       <c r="R13">
-        <v>3081.011703335494</v>
+        <v>8196.540000608446</v>
       </c>
       <c r="S13">
-        <v>0.1668610211278835</v>
+        <v>0.05993473016043119</v>
       </c>
       <c r="T13">
-        <v>0.1668610211278835</v>
+        <v>0.04733667580786777</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="H14">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="I14">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="J14">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.976918479931924</v>
+        <v>4.713375</v>
       </c>
       <c r="N14">
-        <v>0.976918479931924</v>
+        <v>9.42675</v>
       </c>
       <c r="O14">
-        <v>0.01391326492295064</v>
+        <v>0.05587567929323027</v>
       </c>
       <c r="P14">
-        <v>0.01391326492295064</v>
+        <v>0.0419151680218315</v>
       </c>
       <c r="Q14">
-        <v>77.01905478402021</v>
+        <v>377.913302914875</v>
       </c>
       <c r="R14">
-        <v>77.01905478402021</v>
+        <v>2267.47981748925</v>
       </c>
       <c r="S14">
-        <v>0.004171187702290467</v>
+        <v>0.0165802632568564</v>
       </c>
       <c r="T14">
-        <v>0.004171187702290467</v>
+        <v>0.01309515442045108</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="H15">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="I15">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="J15">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.08339691402928</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N15">
-        <v>6.08339691402928</v>
+        <v>129.257158</v>
       </c>
       <c r="O15">
-        <v>0.08663968860763883</v>
+        <v>0.510768575720681</v>
       </c>
       <c r="P15">
-        <v>0.08663968860763883</v>
+        <v>0.5747299435748717</v>
       </c>
       <c r="Q15">
-        <v>479.6075515197649</v>
+        <v>3454.566314312629</v>
       </c>
       <c r="R15">
-        <v>479.6075515197649</v>
+        <v>31091.09682881366</v>
       </c>
       <c r="S15">
-        <v>0.02597452184313163</v>
+        <v>0.1515628544636687</v>
       </c>
       <c r="T15">
-        <v>0.02597452184313163</v>
+        <v>0.1795573706694931</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="H16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="I16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="J16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>20.4290998216986</v>
+        <v>0.1358286666666667</v>
       </c>
       <c r="N16">
-        <v>20.4290998216986</v>
+        <v>0.407486</v>
       </c>
       <c r="O16">
-        <v>0.2909510709394126</v>
+        <v>0.001610209036517091</v>
       </c>
       <c r="P16">
-        <v>0.2909510709394126</v>
+        <v>0.00181184863887809</v>
       </c>
       <c r="Q16">
-        <v>1610.605174001075</v>
+        <v>10.89059539088733</v>
       </c>
       <c r="R16">
-        <v>1610.605174001075</v>
+        <v>98.015358517986</v>
       </c>
       <c r="S16">
-        <v>0.08722694031857359</v>
+        <v>0.0004778051929161439</v>
       </c>
       <c r="T16">
-        <v>0.08722694031857359</v>
+        <v>0.0005660585137159605</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>78.5729945541879</v>
+        <v>80.178917</v>
       </c>
       <c r="H17">
-        <v>78.5729945541879</v>
+        <v>240.536751</v>
       </c>
       <c r="I17">
-        <v>0.2987886696305061</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="J17">
-        <v>0.2987886696305061</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.64557892982294</v>
+        <v>1.596503666666666</v>
       </c>
       <c r="N17">
-        <v>3.64557892982294</v>
+        <v>4.789510999999999</v>
       </c>
       <c r="O17">
-        <v>0.0519203050101867</v>
+        <v>0.01892608308677601</v>
       </c>
       <c r="P17">
-        <v>0.0519203050101867</v>
+        <v>0.02129611566100832</v>
       </c>
       <c r="Q17">
-        <v>286.44405339984</v>
+        <v>128.0059349798623</v>
       </c>
       <c r="R17">
-        <v>286.44405339984</v>
+        <v>1152.053414818761</v>
       </c>
       <c r="S17">
-        <v>0.01551319886080378</v>
+        <v>0.005616029084015138</v>
       </c>
       <c r="T17">
-        <v>0.01551319886080378</v>
+        <v>0.006653341410714093</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>78.5729945541879</v>
+        <v>80.178917</v>
       </c>
       <c r="H18">
-        <v>78.5729945541879</v>
+        <v>240.536751</v>
       </c>
       <c r="I18">
-        <v>0.2987886696305061</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="J18">
-        <v>0.2987886696305061</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>39.079904035637</v>
+        <v>11.373275</v>
       </c>
       <c r="N18">
-        <v>39.079904035637</v>
+        <v>34.119825</v>
       </c>
       <c r="O18">
-        <v>0.5565756705198114</v>
+        <v>0.1348268420004166</v>
       </c>
       <c r="P18">
-        <v>0.5565756705198114</v>
+        <v>0.1517106317395165</v>
       </c>
       <c r="Q18">
-        <v>3070.625086970292</v>
+        <v>911.8968722431749</v>
       </c>
       <c r="R18">
-        <v>3070.625086970292</v>
+        <v>8207.071850188575</v>
       </c>
       <c r="S18">
-        <v>0.1662985041433213</v>
+        <v>0.04000782742570314</v>
       </c>
       <c r="T18">
-        <v>0.1662985041433213</v>
+        <v>0.04739749936868671</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>78.5729945541879</v>
+        <v>80.178917</v>
       </c>
       <c r="H19">
-        <v>78.5729945541879</v>
+        <v>240.536751</v>
       </c>
       <c r="I19">
-        <v>0.2987886696305061</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="J19">
-        <v>0.2987886696305061</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.976918479931924</v>
+        <v>23.4499775</v>
       </c>
       <c r="N19">
-        <v>0.976918479931924</v>
+        <v>46.899955</v>
       </c>
       <c r="O19">
-        <v>0.01391326492295064</v>
+        <v>0.277992610862379</v>
       </c>
       <c r="P19">
-        <v>0.01391326492295064</v>
+        <v>0.2085362923638938</v>
       </c>
       <c r="Q19">
-        <v>76.7594104035766</v>
+        <v>1880.193799624367</v>
       </c>
       <c r="R19">
-        <v>76.7594104035766</v>
+        <v>11281.1627977462</v>
       </c>
       <c r="S19">
-        <v>0.004157125916545208</v>
+        <v>0.08249010535282242</v>
       </c>
       <c r="T19">
-        <v>0.004157125916545208</v>
+        <v>0.06515099615850711</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="H20">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="I20">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="J20">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.08339691402928</v>
+        <v>4.713375</v>
       </c>
       <c r="N20">
-        <v>6.08339691402928</v>
+        <v>9.42675</v>
       </c>
       <c r="O20">
-        <v>0.08663968860763883</v>
+        <v>0.05587567929323027</v>
       </c>
       <c r="P20">
-        <v>0.08663968860763883</v>
+        <v>0.0419151680218315</v>
       </c>
       <c r="Q20">
-        <v>477.9907125969861</v>
+        <v>373.9850222196251</v>
       </c>
       <c r="R20">
-        <v>477.9907125969861</v>
+        <v>2243.91013331775</v>
       </c>
       <c r="S20">
-        <v>0.02588695729627772</v>
+        <v>0.01640791703995506</v>
       </c>
       <c r="T20">
-        <v>0.02588695729627772</v>
+        <v>0.01295903472867416</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="H21">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="I21">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="J21">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.4290998216986</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N21">
-        <v>20.4290998216986</v>
+        <v>129.257158</v>
       </c>
       <c r="O21">
-        <v>0.2909510709394126</v>
+        <v>0.510768575720681</v>
       </c>
       <c r="P21">
-        <v>0.2909510709394126</v>
+        <v>0.5747299435748717</v>
       </c>
       <c r="Q21">
-        <v>1605.175549037285</v>
+        <v>3418.657268353398</v>
       </c>
       <c r="R21">
-        <v>1605.175549037285</v>
+        <v>30767.91541518058</v>
       </c>
       <c r="S21">
-        <v>0.08693288341355809</v>
+        <v>0.1499874099616774</v>
       </c>
       <c r="T21">
-        <v>0.08693288341355809</v>
+        <v>0.177690932659901</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.7125431818944</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="H22">
-        <v>10.7125431818944</v>
+        <v>238.036453</v>
       </c>
       <c r="I22">
-        <v>0.04073647114811378</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="J22">
-        <v>0.04073647114811378</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>3.64557892982294</v>
+        <v>0.1358286666666667</v>
       </c>
       <c r="N22">
-        <v>3.64557892982294</v>
+        <v>0.407486</v>
       </c>
       <c r="O22">
-        <v>0.0519203050101867</v>
+        <v>0.001610209036517091</v>
       </c>
       <c r="P22">
-        <v>0.0519203050101867</v>
+        <v>0.00181184863887809</v>
       </c>
       <c r="Q22">
-        <v>39.05342170873262</v>
+        <v>10.77739134301756</v>
       </c>
       <c r="R22">
-        <v>39.05342170873262</v>
+        <v>96.99652208715801</v>
       </c>
       <c r="S22">
-        <v>0.002115050007048738</v>
+        <v>0.000472838569881322</v>
       </c>
       <c r="T22">
-        <v>0.002115050007048738</v>
+        <v>0.0005601745273236817</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.7125431818944</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="H23">
-        <v>10.7125431818944</v>
+        <v>238.036453</v>
       </c>
       <c r="I23">
-        <v>0.04073647114811378</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="J23">
-        <v>0.04073647114811378</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>39.079904035637</v>
+        <v>1.596503666666666</v>
       </c>
       <c r="N23">
-        <v>39.079904035637</v>
+        <v>4.789510999999999</v>
       </c>
       <c r="O23">
-        <v>0.5565756705198114</v>
+        <v>0.01892608308677601</v>
       </c>
       <c r="P23">
-        <v>0.5565756705198114</v>
+        <v>0.02129611566100832</v>
       </c>
       <c r="Q23">
-        <v>418.6451595260506</v>
+        <v>126.6753566716092</v>
       </c>
       <c r="R23">
-        <v>418.6451595260506</v>
+        <v>1140.078210044483</v>
       </c>
       <c r="S23">
-        <v>0.02267292874387238</v>
+        <v>0.005557652365163121</v>
       </c>
       <c r="T23">
-        <v>0.02267292874387238</v>
+        <v>0.00658418218180888</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.7125431818944</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="H24">
-        <v>10.7125431818944</v>
+        <v>238.036453</v>
       </c>
       <c r="I24">
-        <v>0.04073647114811378</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="J24">
-        <v>0.04073647114811378</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.976918479931924</v>
+        <v>11.373275</v>
       </c>
       <c r="N24">
-        <v>0.976918479931924</v>
+        <v>34.119825</v>
       </c>
       <c r="O24">
-        <v>0.01391326492295064</v>
+        <v>0.1348268420004166</v>
       </c>
       <c r="P24">
-        <v>0.01391326492295064</v>
+        <v>0.1517106317395165</v>
       </c>
       <c r="Q24">
-        <v>10.46528140146137</v>
+        <v>902.4180133311918</v>
       </c>
       <c r="R24">
-        <v>10.46528140146137</v>
+        <v>8121.762119980725</v>
       </c>
       <c r="S24">
-        <v>0.0005667773151098423</v>
+        <v>0.03959195961971938</v>
       </c>
       <c r="T24">
-        <v>0.0005667773151098423</v>
+        <v>0.04690481842748398</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.7125431818944</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="H25">
-        <v>10.7125431818944</v>
+        <v>238.036453</v>
       </c>
       <c r="I25">
-        <v>0.04073647114811378</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="J25">
-        <v>0.04073647114811378</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.08339691402928</v>
+        <v>23.4499775</v>
       </c>
       <c r="N25">
-        <v>6.08339691402928</v>
+        <v>46.899955</v>
       </c>
       <c r="O25">
-        <v>0.08663968860763883</v>
+        <v>0.277992610862379</v>
       </c>
       <c r="P25">
-        <v>0.08663968860763883</v>
+        <v>0.2085362923638938</v>
       </c>
       <c r="Q25">
-        <v>65.16865213414179</v>
+        <v>1860.649822343269</v>
       </c>
       <c r="R25">
-        <v>65.16865213414179</v>
+        <v>11163.89893405962</v>
       </c>
       <c r="S25">
-        <v>0.003529395175246642</v>
+        <v>0.08163264866657388</v>
       </c>
       <c r="T25">
-        <v>0.003529395175246642</v>
+        <v>0.06447377363547935</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="H26">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="I26">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="J26">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.4290998216986</v>
+        <v>4.713375</v>
       </c>
       <c r="N26">
-        <v>20.4290998216986</v>
+        <v>9.42675</v>
       </c>
       <c r="O26">
-        <v>0.2909510709394126</v>
+        <v>0.05587567929323027</v>
       </c>
       <c r="P26">
-        <v>0.2909510709394126</v>
+        <v>0.0419151680218315</v>
       </c>
       <c r="Q26">
-        <v>218.8476140071774</v>
+        <v>55.26909181050002</v>
       </c>
       <c r="R26">
-        <v>218.8476140071774</v>
+        <v>331.614550863</v>
       </c>
       <c r="S26">
-        <v>0.01185231990683619</v>
+        <v>0.002424831529129501</v>
       </c>
       <c r="T26">
-        <v>0.01185231990683619</v>
+        <v>0.001915141082238146</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>25.6710371265428</v>
+        <v>11.726012</v>
       </c>
       <c r="H27">
-        <v>25.6710371265428</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="I27">
-        <v>0.09761897296386338</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="J27">
-        <v>0.09761897296386338</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.64557892982294</v>
+        <v>43.08571933333334</v>
       </c>
       <c r="N27">
-        <v>3.64557892982294</v>
+        <v>129.257158</v>
       </c>
       <c r="O27">
-        <v>0.0519203050101867</v>
+        <v>0.510768575720681</v>
       </c>
       <c r="P27">
-        <v>0.0519203050101867</v>
+        <v>0.5747299435748717</v>
       </c>
       <c r="Q27">
-        <v>93.58579205522686</v>
+        <v>505.2236619312988</v>
       </c>
       <c r="R27">
-        <v>93.58579205522686</v>
+        <v>4547.012957381688</v>
       </c>
       <c r="S27">
-        <v>0.005068406851064956</v>
+        <v>0.02216577520241678</v>
       </c>
       <c r="T27">
-        <v>0.005068406851064956</v>
+        <v>0.02625991921490939</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>25.6710371265428</v>
+        <v>11.726012</v>
       </c>
       <c r="H28">
-        <v>25.6710371265428</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="I28">
-        <v>0.09761897296386338</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="J28">
-        <v>0.09761897296386338</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>39.079904035637</v>
+        <v>0.1358286666666667</v>
       </c>
       <c r="N28">
-        <v>39.079904035637</v>
+        <v>0.407486</v>
       </c>
       <c r="O28">
-        <v>0.5565756705198114</v>
+        <v>0.001610209036517091</v>
       </c>
       <c r="P28">
-        <v>0.5565756705198114</v>
+        <v>0.00181184863887809</v>
       </c>
       <c r="Q28">
-        <v>1003.221667400567</v>
+        <v>1.592728575277334</v>
       </c>
       <c r="R28">
-        <v>1003.221667400567</v>
+        <v>14.334557177496</v>
       </c>
       <c r="S28">
-        <v>0.0543323453328176</v>
+        <v>6.987808809885796E-05</v>
       </c>
       <c r="T28">
-        <v>0.0543323453328176</v>
+        <v>8.278496608448228E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>25.6710371265428</v>
+        <v>11.726012</v>
       </c>
       <c r="H29">
-        <v>25.6710371265428</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="I29">
-        <v>0.09761897296386338</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="J29">
-        <v>0.09761897296386338</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.976918479931924</v>
+        <v>1.596503666666666</v>
       </c>
       <c r="N29">
-        <v>0.976918479931924</v>
+        <v>4.789510999999999</v>
       </c>
       <c r="O29">
-        <v>0.01391326492295064</v>
+        <v>0.01892608308677601</v>
       </c>
       <c r="P29">
-        <v>0.01391326492295064</v>
+        <v>0.02129611566100832</v>
       </c>
       <c r="Q29">
-        <v>25.07851056793818</v>
+        <v>18.72062115337733</v>
       </c>
       <c r="R29">
-        <v>25.07851056793818</v>
+        <v>168.485590380396</v>
       </c>
       <c r="S29">
-        <v>0.001358198632352587</v>
+        <v>0.000821333423991129</v>
       </c>
       <c r="T29">
-        <v>0.001358198632352587</v>
+        <v>0.0009730383514924553</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>25.6710371265428</v>
+        <v>11.726012</v>
       </c>
       <c r="H30">
-        <v>25.6710371265428</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="I30">
-        <v>0.09761897296386338</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="J30">
-        <v>0.09761897296386338</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.08339691402928</v>
+        <v>11.373275</v>
       </c>
       <c r="N30">
-        <v>6.08339691402928</v>
+        <v>34.119825</v>
       </c>
       <c r="O30">
-        <v>0.08663968860763883</v>
+        <v>0.1348268420004166</v>
       </c>
       <c r="P30">
-        <v>0.08663968860763883</v>
+        <v>0.1517106317395165</v>
       </c>
       <c r="Q30">
-        <v>156.1671080355416</v>
+        <v>133.3631591293</v>
       </c>
       <c r="R30">
-        <v>156.1671080355416</v>
+        <v>1200.2684321637</v>
       </c>
       <c r="S30">
-        <v>0.008457677419786638</v>
+        <v>0.005851067612795571</v>
       </c>
       <c r="T30">
-        <v>0.008457677419786638</v>
+        <v>0.00693179288474566</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>25.6710371265428</v>
+        <v>11.726012</v>
       </c>
       <c r="H31">
-        <v>25.6710371265428</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="I31">
-        <v>0.09761897296386338</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="J31">
-        <v>0.09761897296386338</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>20.4290998216986</v>
+        <v>23.4499775</v>
       </c>
       <c r="N31">
-        <v>20.4290998216986</v>
+        <v>46.899955</v>
       </c>
       <c r="O31">
-        <v>0.2909510709394126</v>
+        <v>0.277992610862379</v>
       </c>
       <c r="P31">
-        <v>0.2909510709394126</v>
+        <v>0.2085362923638938</v>
       </c>
       <c r="Q31">
-        <v>524.4361799846737</v>
+        <v>274.97471756473</v>
       </c>
       <c r="R31">
-        <v>524.4361799846737</v>
+        <v>1649.84830538838</v>
       </c>
       <c r="S31">
-        <v>0.02840234472784161</v>
+        <v>0.01206401883987109</v>
       </c>
       <c r="T31">
-        <v>0.02840234472784161</v>
+        <v>0.009528207555692083</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>25.708558</v>
+      </c>
+      <c r="H32">
+        <v>51.417116</v>
+      </c>
+      <c r="I32">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="J32">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.713375</v>
+      </c>
+      <c r="N32">
+        <v>9.42675</v>
+      </c>
+      <c r="O32">
+        <v>0.05587567929323027</v>
+      </c>
+      <c r="P32">
+        <v>0.0419151680218315</v>
+      </c>
+      <c r="Q32">
+        <v>121.17407456325</v>
+      </c>
+      <c r="R32">
+        <v>484.696298253</v>
+      </c>
+      <c r="S32">
+        <v>0.005316293553755057</v>
+      </c>
+      <c r="T32">
+        <v>0.002799219125871731</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>25.708558</v>
+      </c>
+      <c r="H33">
+        <v>51.417116</v>
+      </c>
+      <c r="I33">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="J33">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>43.08571933333334</v>
+      </c>
+      <c r="N33">
+        <v>129.257158</v>
+      </c>
+      <c r="O33">
+        <v>0.510768575720681</v>
+      </c>
+      <c r="P33">
+        <v>0.5747299435748717</v>
+      </c>
+      <c r="Q33">
+        <v>1107.671714452722</v>
+      </c>
+      <c r="R33">
+        <v>6646.030286716328</v>
+      </c>
+      <c r="S33">
+        <v>0.04859709485256311</v>
+      </c>
+      <c r="T33">
+        <v>0.0383821687038931</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>25.708558</v>
+      </c>
+      <c r="H34">
+        <v>51.417116</v>
+      </c>
+      <c r="I34">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="J34">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.1358286666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.407486</v>
+      </c>
+      <c r="O34">
+        <v>0.001610209036517091</v>
+      </c>
+      <c r="P34">
+        <v>0.00181184863887809</v>
+      </c>
+      <c r="Q34">
+        <v>3.491959155062667</v>
+      </c>
+      <c r="R34">
+        <v>20.951754930376</v>
+      </c>
+      <c r="S34">
+        <v>0.0001532033977808141</v>
+      </c>
+      <c r="T34">
+        <v>0.000121000621075659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>25.708558</v>
+      </c>
+      <c r="H35">
+        <v>51.417116</v>
+      </c>
+      <c r="I35">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="J35">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.596503666666666</v>
+      </c>
+      <c r="N35">
+        <v>4.789510999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.01892608308677601</v>
+      </c>
+      <c r="P35">
+        <v>0.02129611566100832</v>
+      </c>
+      <c r="Q35">
+        <v>41.04380711171266</v>
+      </c>
+      <c r="R35">
+        <v>246.262842670276</v>
+      </c>
+      <c r="S35">
+        <v>0.001800722868782202</v>
+      </c>
+      <c r="T35">
+        <v>0.001422217709684996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>25.708558</v>
+      </c>
+      <c r="H36">
+        <v>51.417116</v>
+      </c>
+      <c r="I36">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="J36">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.373275</v>
+      </c>
+      <c r="N36">
+        <v>34.119825</v>
+      </c>
+      <c r="O36">
+        <v>0.1348268420004166</v>
+      </c>
+      <c r="P36">
+        <v>0.1517106317395165</v>
+      </c>
+      <c r="Q36">
+        <v>292.39049998745</v>
+      </c>
+      <c r="R36">
+        <v>1754.3429999247</v>
+      </c>
+      <c r="S36">
+        <v>0.01282810482246449</v>
+      </c>
+      <c r="T36">
+        <v>0.01013168554500718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>25.708558</v>
+      </c>
+      <c r="H37">
+        <v>51.417116</v>
+      </c>
+      <c r="I37">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="J37">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.4499775</v>
+      </c>
+      <c r="N37">
+        <v>46.899955</v>
+      </c>
+      <c r="O37">
+        <v>0.277992610862379</v>
+      </c>
+      <c r="P37">
+        <v>0.2085362923638938</v>
+      </c>
+      <c r="Q37">
+        <v>602.8651066574449</v>
+      </c>
+      <c r="R37">
+        <v>2411.46042662978</v>
+      </c>
+      <c r="S37">
+        <v>0.02644961714672631</v>
+      </c>
+      <c r="T37">
+        <v>0.01392667155048384</v>
       </c>
     </row>
   </sheetData>
